--- a/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2020-7郑振彪).xlsx
+++ b/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2020-7郑振彪).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC0F78E-5AE5-4F20-93BE-CCFF53B35AF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523D87AC-C4E0-419C-8AC4-B97EDE79C604}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>智造组工程师工作月度情况</t>
   </si>
@@ -62,9 +62,6 @@
     <t>完成待确认</t>
   </si>
   <si>
-    <t>未开始</t>
-  </si>
-  <si>
     <t>不断修改</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -84,18 +81,10 @@
     <t>进行中</t>
   </si>
   <si>
-    <t>增加上传SMT首件功能</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>组织架构重做，使用vue-org-tree框架</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>工序产能模块段录入方式改变，上传excel表格新增新版本</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>直通率新看板完成</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -117,6 +106,49 @@
   </si>
   <si>
     <t>工序产能首页计算面积增加总人数</t>
+  </si>
+  <si>
+    <t>工序产能模块段录入方式改变，上传excel表格新增新版本，子表页面旧版新版根据数据显示</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加上传SMT首件功能，生产管控增加 smt首件列</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料仓库增加  重新搜索/编辑/打印  功能</t>
+  </si>
+  <si>
+    <t>取消模组段所有关于条码长度15位限制的功能</t>
+  </si>
+  <si>
+    <t>KPI 效率/品质 指标日报表完成
+--查询/导出excel功能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>KPI工段工序录入工序增加新字段
+--包括增/删/查/改功能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>KPI生产送检信息
+--增/删/查/改/excel粘贴功能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>KPI计划信息录入
+--增/删/查/改/excel粘贴功能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>KPI数据来源统计
+--增/删/查/改/excel粘贴/导出excel表功能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经正常显示，缺编辑功能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -257,10 +289,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -658,7 +690,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -672,16 +704,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -714,25 +746,27 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6">
         <v>44013</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="6">
         <v>44014</v>
@@ -748,7 +782,7 @@
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -756,7 +790,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6">
         <v>44015</v>
@@ -778,7 +812,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="6">
         <v>44016</v>
@@ -800,16 +834,20 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C7" s="6">
         <v>44025</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6">
+        <v>44033</v>
+      </c>
       <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="F7" s="6">
+        <v>44033</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="8"/>
     </row>
@@ -818,16 +856,20 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C8" s="6">
         <v>44029</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6">
+        <v>44032</v>
+      </c>
       <c r="E8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="F8" s="6">
+        <v>44032</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="7"/>
     </row>
@@ -836,7 +878,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" s="6">
         <v>44015</v>
@@ -858,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" s="6">
         <v>44020</v>
@@ -880,7 +922,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11" s="6">
         <v>44025</v>
@@ -902,7 +944,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" s="6">
         <v>44028</v>
@@ -910,8 +952,8 @@
       <c r="D12" s="6">
         <v>44028</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>22</v>
+      <c r="E12" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="F12" s="6">
         <v>44028</v>
@@ -924,7 +966,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" s="6">
         <v>44029</v>
@@ -945,15 +987,21 @@
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="C14" s="6">
-        <v>44024</v>
-      </c>
-      <c r="D14" s="6"/>
+        <v>44026</v>
+      </c>
+      <c r="D14" s="6">
+        <v>44035</v>
+      </c>
       <c r="E14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="F14" s="6">
+        <v>44035</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="7"/>
     </row>
@@ -961,94 +1009,130 @@
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="C15" s="6">
-        <v>44025</v>
-      </c>
-      <c r="D15" s="6"/>
+        <v>44034</v>
+      </c>
+      <c r="D15" s="6">
+        <v>44034</v>
+      </c>
       <c r="E15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="F15" s="6">
+        <v>44034</v>
+      </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C16" s="6">
-        <v>44026</v>
-      </c>
-      <c r="D16" s="6"/>
+        <v>44034</v>
+      </c>
+      <c r="D16" s="6">
+        <v>44040</v>
+      </c>
       <c r="E16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="F16" s="6">
+        <v>44040</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="C17" s="6">
-        <v>44027</v>
-      </c>
-      <c r="D17" s="6"/>
+        <v>44039</v>
+      </c>
+      <c r="D17" s="6">
+        <v>44043</v>
+      </c>
       <c r="E17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="F17" s="6">
+        <v>44043</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="C18" s="6">
-        <v>44028</v>
-      </c>
-      <c r="D18" s="6"/>
+        <v>44039</v>
+      </c>
+      <c r="D18" s="6">
+        <v>44043</v>
+      </c>
       <c r="E18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="F18" s="6">
+        <v>44043</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="C19" s="6">
-        <v>44029</v>
-      </c>
-      <c r="D19" s="6"/>
+        <v>44039</v>
+      </c>
+      <c r="D19" s="6">
+        <v>44043</v>
+      </c>
       <c r="E19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="F19" s="6">
+        <v>44043</v>
+      </c>
       <c r="G19" s="4"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="C20" s="6">
-        <v>44030</v>
-      </c>
-      <c r="D20" s="6"/>
+        <v>44039</v>
+      </c>
+      <c r="D20" s="6">
+        <v>44043</v>
+      </c>
       <c r="E20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="F20" s="6">
+        <v>44043</v>
+      </c>
       <c r="G20" s="4"/>
       <c r="H20" s="7"/>
     </row>
